--- a/hist/stanice_kvalita_ben_20241217.xlsx
+++ b/hist/stanice_kvalita_ben_20241217.xlsx
@@ -3566,7 +3566,7 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>2024-12-13T11:48:48Z</t>
+          <t>2024-12-17T05:37:53Z</t>
         </is>
       </c>
       <c r="M55" t="n">
@@ -5375,41 +5375,41 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="B88" t="n">
-        <v>421</v>
+        <v>327</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Mohelno</t>
+          <t xml:space="preserve">Havlíčkův Brod </t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Mohelno</t>
+          <t>Strojírenská</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mohelno  </t>
+          <t xml:space="preserve">Havlíčkův Brod </t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Třebíč</t>
+          <t>Havlíčkův Brod</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Kraj Vysočina</t>
+          <t>Vysočina</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>49.11931388888889</v>
+        <v>49.60619388888889</v>
       </c>
       <c r="I88" t="n">
-        <v>16.19643611111111</v>
+        <v>15.60131944444444</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>2024-12-14T11:55:42Z</t>
+          <t>2024-12-16T17:56:41Z</t>
         </is>
       </c>
       <c r="M88" t="n">
@@ -5432,41 +5432,41 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>415</v>
+        <v>244</v>
       </c>
       <c r="B89" t="n">
-        <v>616</v>
+        <v>420</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Merklín</t>
+          <t>Jemnice (Třebíč)</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Na Podolí</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Merklín</t>
+          <t>Jemnice</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Plzeň - jih</t>
+          <t>Třebíč</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Plzeňský kraj</t>
+          <t>Kraj Vysočina</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>49.55876666666666</v>
+        <v>49.02251666666667</v>
       </c>
       <c r="I89" t="n">
-        <v>13.20175</v>
+        <v>15.56726944444444</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>2024-12-12T12:15:35Z</t>
+          <t>2024-12-13T06:03:11Z</t>
         </is>
       </c>
       <c r="M89" t="n">
@@ -5546,24 +5546,24 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B91" t="n">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Jemnice (Třebíč)</t>
+          <t>Okříšky</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Na Podolí</t>
+          <t>Masarykova</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Jemnice</t>
+          <t xml:space="preserve">Okříšky  </t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -5577,10 +5577,10 @@
         </is>
       </c>
       <c r="H91" t="n">
-        <v>49.02251666666667</v>
+        <v>49.24034722222223</v>
       </c>
       <c r="I91" t="n">
-        <v>15.56726944444444</v>
+        <v>15.77758611111111</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>2024-12-13T06:03:11Z</t>
+          <t>2024-12-17T07:08:53Z</t>
         </is>
       </c>
       <c r="M91" t="n">
@@ -5660,14 +5660,14 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>271</v>
+        <v>415</v>
       </c>
       <c r="B93" t="n">
-        <v>434</v>
+        <v>616</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Doubravník</t>
+          <t>Merklín</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -5677,24 +5677,24 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t xml:space="preserve">Doubravník  </t>
+          <t>Merklín</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Brno- venkov</t>
+          <t>Plzeň - jih</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Kraj Vysočina</t>
+          <t>Plzeňský kraj</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>49.42959166666667</v>
+        <v>49.55876666666666</v>
       </c>
       <c r="I93" t="n">
-        <v>16.34502777777778</v>
+        <v>13.20175</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>2024-12-15T12:23:13Z</t>
+          <t>2024-12-12T12:15:35Z</t>
         </is>
       </c>
       <c r="M93" t="n">
@@ -5945,41 +5945,41 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>142</v>
+        <v>271</v>
       </c>
       <c r="B98" t="n">
-        <v>229</v>
+        <v>434</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Bavorov</t>
+          <t>Doubravník</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Pod Mazným</t>
+          <t> </t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Bavorov</t>
+          <t xml:space="preserve">Doubravník  </t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Strakonice</t>
+          <t>Brno- venkov</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Jihočeský</t>
+          <t>Kraj Vysočina</t>
         </is>
       </c>
       <c r="H98" t="n">
-        <v>49.12892138888889</v>
+        <v>49.42959166666667</v>
       </c>
       <c r="I98" t="n">
-        <v>14.08565722222222</v>
+        <v>16.34502777777778</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>2024-12-11T05:16:41Z</t>
+          <t>2024-12-15T12:23:13Z</t>
         </is>
       </c>
       <c r="M98" t="n">
@@ -6173,41 +6173,41 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>202</v>
+        <v>247</v>
       </c>
       <c r="B102" t="n">
-        <v>327</v>
+        <v>422</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t xml:space="preserve">Havlíčkův Brod </t>
+          <t>Hrotovice</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Strojírenská</t>
+          <t>Jihlavská</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t xml:space="preserve">Havlíčkův Brod </t>
+          <t xml:space="preserve">Hrotovice  </t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Havlíčkův Brod</t>
+          <t>Třebíč</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Vysočina</t>
+          <t>Kraj Vysočina</t>
         </is>
       </c>
       <c r="H102" t="n">
-        <v>49.60619388888889</v>
+        <v>49.10925</v>
       </c>
       <c r="I102" t="n">
-        <v>15.60131944444444</v>
+        <v>16.05001388888889</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>2024-12-16T17:56:41Z</t>
+          <t>2024-12-14T11:55:42Z</t>
         </is>
       </c>
       <c r="M102" t="n">
@@ -6230,24 +6230,24 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B103" t="n">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Hrotovice</t>
+          <t>Mohelno</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Jihlavská</t>
+          <t>Mohelno</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hrotovice  </t>
+          <t xml:space="preserve">Mohelno  </t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -6261,10 +6261,10 @@
         </is>
       </c>
       <c r="H103" t="n">
-        <v>49.10925</v>
+        <v>49.11931388888889</v>
       </c>
       <c r="I103" t="n">
-        <v>16.05001388888889</v>
+        <v>16.19643611111111</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
@@ -7916,25 +7916,29 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>564</v>
+        <v>142</v>
       </c>
       <c r="B133" t="n">
-        <v>891</v>
+        <v>229</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Pištín</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr"/>
+          <t>Bavorov</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Pod Mazným</t>
+        </is>
+      </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Pištín</t>
+          <t>Bavorov</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>České Budějovice</t>
+          <t>Strakonice</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -7943,10 +7947,10 @@
         </is>
       </c>
       <c r="H133" t="n">
-        <v>49.04376194444444</v>
+        <v>49.12892138888889</v>
       </c>
       <c r="I133" t="n">
-        <v>14.33340805555556</v>
+        <v>14.08565722222222</v>
       </c>
       <c r="J133" t="inlineStr">
         <is>
@@ -7960,7 +7964,7 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>2024-12-15T07:53:30Z</t>
+          <t>2024-12-11T05:16:41Z</t>
         </is>
       </c>
       <c r="M133" t="n">
@@ -8526,7 +8530,7 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>2024-12-10T12:17:47Z</t>
+          <t>2024-12-17T04:55:19Z</t>
         </is>
       </c>
       <c r="M143" t="n">
@@ -8754,7 +8758,7 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>2024-12-10T12:17:47Z</t>
+          <t>2024-12-17T04:55:19Z</t>
         </is>
       </c>
       <c r="M147" t="n">
@@ -8925,7 +8929,7 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>2024-12-09T05:58:20Z</t>
+          <t>2024-12-17T08:21:41Z</t>
         </is>
       </c>
       <c r="M150" t="n">
@@ -10114,7 +10118,7 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>2024-12-13T13:08:40Z</t>
+          <t>2024-12-17T04:34:05Z</t>
         </is>
       </c>
       <c r="M171" t="n">
@@ -10171,7 +10175,7 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>2024-12-14T13:52:59Z</t>
+          <t>2024-12-17T04:34:05Z</t>
         </is>
       </c>
       <c r="M172" t="n">
@@ -10860,41 +10864,37 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>15</v>
+        <v>564</v>
       </c>
       <c r="B185" t="n">
-        <v>62</v>
+        <v>891</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Nové Město (Kolín)</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>areál skladu Čepro, a.s.</t>
-        </is>
-      </c>
+          <t>Pištín</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Břežany</t>
+          <t>Pištín</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Kolín</t>
+          <t>České Budějovice</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>Středočeský kraj</t>
+          <t>Jihočeský</t>
         </is>
       </c>
       <c r="H185" t="n">
-        <v>50.04354166666666</v>
+        <v>49.04376194444444</v>
       </c>
       <c r="I185" t="n">
-        <v>15.07610277777778</v>
+        <v>14.33340805555556</v>
       </c>
       <c r="J185" t="inlineStr">
         <is>
@@ -10908,50 +10908,50 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>2024-12-16T11:28:29Z</t>
+          <t>2024-12-15T07:53:30Z</t>
         </is>
       </c>
       <c r="M185" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>602</v>
+        <v>15</v>
       </c>
       <c r="B186" t="n">
-        <v>872</v>
+        <v>62</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Kopidlno</t>
+          <t>Nové Město (Kolín)</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t xml:space="preserve">Husova </t>
+          <t>areál skladu Čepro, a.s.</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Kopidlno</t>
+          <t>Břežany</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Jičín</t>
+          <t>Kolín</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>Královéhradecký</t>
+          <t>Středočeský kraj</t>
         </is>
       </c>
       <c r="H186" t="n">
-        <v>50.3264925</v>
+        <v>50.04354166666666</v>
       </c>
       <c r="I186" t="n">
-        <v>15.26357805555556</v>
+        <v>15.07610277777778</v>
       </c>
       <c r="J186" t="inlineStr">
         <is>
@@ -10965,7 +10965,7 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>2024-12-13T08:28:22Z</t>
+          <t>2024-12-16T11:28:29Z</t>
         </is>
       </c>
       <c r="M186" t="n">
@@ -11031,41 +11031,41 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>126</v>
+        <v>602</v>
       </c>
       <c r="B188" t="n">
-        <v>219</v>
+        <v>872</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Dubenec</t>
+          <t>Kopidlno</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve">Husova </t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Dubenec</t>
+          <t>Kopidlno</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Příbram</t>
+          <t>Jičín</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>Středočeský kraj</t>
+          <t>Královéhradecký</t>
         </is>
       </c>
       <c r="H188" t="n">
-        <v>49.69424166666666</v>
+        <v>50.3264925</v>
       </c>
       <c r="I188" t="n">
-        <v>14.07781388888889</v>
+        <v>15.26357805555556</v>
       </c>
       <c r="J188" t="inlineStr">
         <is>
@@ -11079,7 +11079,7 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>2024-12-14T17:02:37Z</t>
+          <t>2024-12-13T08:28:22Z</t>
         </is>
       </c>
       <c r="M188" t="n">
@@ -11259,41 +11259,41 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="B192" t="n">
-        <v>122</v>
+        <v>219</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Raspenava</t>
+          <t>Dubenec</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Fučíkova</t>
+          <t> </t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t xml:space="preserve">Raspenava  </t>
+          <t>Dubenec</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Liberec</t>
+          <t>Příbram</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>Liberecký kraj</t>
+          <t>Středočeský kraj</t>
         </is>
       </c>
       <c r="H192" t="n">
-        <v>50.896825</v>
+        <v>49.69424166666666</v>
       </c>
       <c r="I192" t="n">
-        <v>15.14438055555556</v>
+        <v>14.07781388888889</v>
       </c>
       <c r="J192" t="inlineStr">
         <is>
@@ -11307,7 +11307,7 @@
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>2024-12-15T08:57:02Z</t>
+          <t>2024-12-14T17:02:37Z</t>
         </is>
       </c>
       <c r="M192" t="n">
@@ -11316,41 +11316,41 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="B193" t="n">
-        <v>897</v>
+        <v>813</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Praha Švehlovka</t>
+          <t>Poděbrady</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Švehlova</t>
+          <t>Bílkova</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Poděbrady</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Hlavní město Praha</t>
+          <t>Nymburk</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Středočeský</t>
         </is>
       </c>
       <c r="H193" t="n">
-        <v>50.05709083333333</v>
+        <v>50.13402805555555</v>
       </c>
       <c r="I193" t="n">
-        <v>14.51227</v>
+        <v>15.103975</v>
       </c>
       <c r="J193" t="inlineStr">
         <is>
@@ -11364,7 +11364,7 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>2024-12-12T17:46:19Z</t>
+          <t>2024-12-11T18:08:09Z</t>
         </is>
       </c>
       <c r="M193" t="n">
@@ -11373,41 +11373,41 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>97</v>
+        <v>577</v>
       </c>
       <c r="B194" t="n">
-        <v>202</v>
+        <v>814</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Benešov</t>
+          <t>Harrachov</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Vlašimská</t>
+          <t>Na Mýtě</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Benešov</t>
+          <t>Harrachov</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Benešov</t>
+          <t>Jablonec nad Nisou</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>Středočeský kraj</t>
+          <t>Liberecký</t>
         </is>
       </c>
       <c r="H194" t="n">
-        <v>49.78056944444445</v>
+        <v>50.76246861111111</v>
       </c>
       <c r="I194" t="n">
-        <v>14.70320277777778</v>
+        <v>15.39689722222222</v>
       </c>
       <c r="J194" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>2024-12-14T09:46:58Z</t>
+          <t>2024-12-17T05:03:19Z</t>
         </is>
       </c>
       <c r="M194" t="n">
@@ -11430,41 +11430,41 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>90</v>
+        <v>599</v>
       </c>
       <c r="B195" t="n">
-        <v>156</v>
+        <v>868</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Mníšek p. Brdy</t>
+          <t>Smržovka</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Hlavní</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mníšek pod Brdy  </t>
+          <t>Smržovka</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Praha - západ</t>
+          <t>Jablonec nad Nisou</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>Středočeský kraj</t>
+          <t>Liberecký</t>
         </is>
       </c>
       <c r="H195" t="n">
-        <v>49.85987222222222</v>
+        <v>50.73647777777778</v>
       </c>
       <c r="I195" t="n">
-        <v>14.26433333333333</v>
+        <v>15.2484625</v>
       </c>
       <c r="J195" t="inlineStr">
         <is>
@@ -11478,7 +11478,7 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>2024-12-16T07:40:52Z</t>
+          <t>2024-12-17T05:03:19Z</t>
         </is>
       </c>
       <c r="M195" t="n">
@@ -12211,7 +12211,7 @@
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>2024-12-15T15:03:07Z</t>
+          <t>2024-12-17T06:56:04Z</t>
         </is>
       </c>
       <c r="M208" t="n">
@@ -12277,29 +12277,29 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="B210" t="n">
-        <v>51</v>
+        <v>202</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Mstětice</t>
+          <t>Benešov</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>areál skladu Čepro, a.s.</t>
+          <t>Vlašimská</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Zeleneč</t>
+          <t>Benešov</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Praha - východ</t>
+          <t>Benešov</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -12308,10 +12308,10 @@
         </is>
       </c>
       <c r="H210" t="n">
-        <v>50.14248611111111</v>
+        <v>49.78056944444445</v>
       </c>
       <c r="I210" t="n">
-        <v>14.69380277777778</v>
+        <v>14.70320277777778</v>
       </c>
       <c r="J210" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>2024-12-15T14:39:14Z</t>
+          <t>2024-12-14T09:46:58Z</t>
         </is>
       </c>
       <c r="M210" t="n">
@@ -12334,29 +12334,29 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="B211" t="n">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Buštěhrad</t>
+          <t>Mníšek p. Brdy</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Hřebečská</t>
+          <t> </t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Buštěhrad</t>
+          <t xml:space="preserve">Mníšek pod Brdy  </t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Kladno</t>
+          <t>Praha - západ</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -12365,10 +12365,10 @@
         </is>
       </c>
       <c r="H211" t="n">
-        <v>50.149225</v>
+        <v>49.85987222222222</v>
       </c>
       <c r="I211" t="n">
-        <v>14.18226666666667</v>
+        <v>14.26433333333333</v>
       </c>
       <c r="J211" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>2024-12-14T15:17:41Z</t>
+          <t>2024-12-16T07:40:52Z</t>
         </is>
       </c>
       <c r="M211" t="n">
@@ -12391,41 +12391,41 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="B212" t="n">
-        <v>813</v>
+        <v>897</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Poděbrady</t>
+          <t>Praha Švehlovka</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Bílkova</t>
+          <t>Švehlova</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Poděbrady</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Nymburk</t>
+          <t>Hlavní město Praha</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>Středočeský</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="H212" t="n">
-        <v>50.13402805555555</v>
+        <v>50.05709083333333</v>
       </c>
       <c r="I212" t="n">
-        <v>15.103975</v>
+        <v>14.51227</v>
       </c>
       <c r="J212" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>2024-12-11T18:08:09Z</t>
+          <t>2024-12-17T07:27:40Z</t>
         </is>
       </c>
       <c r="M212" t="n">
@@ -12505,29 +12505,29 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="B214" t="n">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Kouřim</t>
+          <t>Mstětice</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Kolínská</t>
+          <t>areál skladu Čepro, a.s.</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Kouřim</t>
+          <t>Zeleneč</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Kolín</t>
+          <t>Praha - východ</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -12536,10 +12536,10 @@
         </is>
       </c>
       <c r="H214" t="n">
-        <v>50.00506111111111</v>
+        <v>50.14248611111111</v>
       </c>
       <c r="I214" t="n">
-        <v>14.98185</v>
+        <v>14.69380277777778</v>
       </c>
       <c r="J214" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>2024-12-16T11:28:29Z</t>
+          <t>2024-12-15T14:39:14Z</t>
         </is>
       </c>
       <c r="M214" t="n">
@@ -12562,41 +12562,41 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>589</v>
+        <v>31</v>
       </c>
       <c r="B215" t="n">
-        <v>821</v>
+        <v>101</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Bakov</t>
+          <t>Praha 3, U Raj.zahr.</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Pražská</t>
+          <t>U Rajské zahrady</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Bakov</t>
+          <t>Praha 3</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Mladá Boleslav</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>Středočeský</t>
+          <t>Hlavní město Praha</t>
         </is>
       </c>
       <c r="H215" t="n">
-        <v>50.47743305555556</v>
+        <v>50.08371944444445</v>
       </c>
       <c r="I215" t="n">
-        <v>14.95129666666667</v>
+        <v>14.443025</v>
       </c>
       <c r="J215" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>2024-12-17T03:39:04Z</t>
+          <t>2024-12-15T19:30:34Z</t>
         </is>
       </c>
       <c r="M215" t="n">
@@ -12619,41 +12619,41 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>31</v>
+        <v>383</v>
       </c>
       <c r="B216" t="n">
-        <v>101</v>
+        <v>601</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Praha 3, U Raj.zahr.</t>
+          <t>Beroun</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>U Rajské zahrady</t>
+          <t>Pražská</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Praha 3</t>
+          <t>Beroun</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Beroun</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>Hlavní město Praha</t>
+          <t>Středočeský kraj</t>
         </is>
       </c>
       <c r="H216" t="n">
-        <v>50.08371944444445</v>
+        <v>49.97495555555556</v>
       </c>
       <c r="I216" t="n">
-        <v>14.443025</v>
+        <v>14.10074166666667</v>
       </c>
       <c r="J216" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>2024-12-15T19:30:34Z</t>
+          <t>2024-12-16T12:46:00Z</t>
         </is>
       </c>
       <c r="M216" t="n">
@@ -12904,41 +12904,41 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>34</v>
+        <v>589</v>
       </c>
       <c r="B221" t="n">
-        <v>102</v>
+        <v>821</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Praha Uhříněves</t>
+          <t>Bakov</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Přátelství</t>
+          <t>Pražská</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Bakov</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Hlavní město Praha</t>
+          <t>Mladá Boleslav</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>Hlavní město Praha</t>
+          <t>Středočeský</t>
         </is>
       </c>
       <c r="H221" t="n">
-        <v>50.03402083333333</v>
+        <v>50.47743305555556</v>
       </c>
       <c r="I221" t="n">
-        <v>14.59571777777778</v>
+        <v>14.95129666666667</v>
       </c>
       <c r="J221" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>2024-12-15T10:07:26Z</t>
+          <t>2024-12-17T03:39:04Z</t>
         </is>
       </c>
       <c r="M221" t="n">
@@ -12961,41 +12961,41 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>383</v>
+        <v>34</v>
       </c>
       <c r="B222" t="n">
-        <v>601</v>
+        <v>102</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Beroun</t>
+          <t>Praha Uhříněves</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Pražská</t>
+          <t>Přátelství</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Beroun</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Beroun</t>
+          <t>Hlavní město Praha</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>Středočeský kraj</t>
+          <t>Hlavní město Praha</t>
         </is>
       </c>
       <c r="H222" t="n">
-        <v>49.97495555555556</v>
+        <v>50.03402083333333</v>
       </c>
       <c r="I222" t="n">
-        <v>14.10074166666667</v>
+        <v>14.59571777777778</v>
       </c>
       <c r="J222" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>2024-12-16T12:46:00Z</t>
+          <t>2024-12-15T10:07:26Z</t>
         </is>
       </c>
       <c r="M222" t="n">
@@ -13018,41 +13018,41 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>164</v>
+        <v>64</v>
       </c>
       <c r="B223" t="n">
-        <v>309</v>
+        <v>122</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Černá za Bory</t>
+          <t>Raspenava</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Průmyslová</t>
+          <t>Fučíkova</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t xml:space="preserve">Černá za Bory  </t>
+          <t xml:space="preserve">Raspenava  </t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Pardubice</t>
+          <t>Liberec</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>Pardubický kraj</t>
+          <t>Liberecký kraj</t>
         </is>
       </c>
       <c r="H223" t="n">
-        <v>50.02514722222222</v>
+        <v>50.896825</v>
       </c>
       <c r="I223" t="n">
-        <v>15.82488055555556</v>
+        <v>15.14438055555556</v>
       </c>
       <c r="J223" t="inlineStr">
         <is>
@@ -13066,50 +13066,50 @@
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>2024-12-16T12:24:13Z</t>
+          <t>2024-12-15T08:57:02Z</t>
         </is>
       </c>
       <c r="M223" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="B224" t="n">
-        <v>322</v>
+        <v>113</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Jablonné n. Orlicí</t>
+          <t>Buštěhrad</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Aloise Hanuše</t>
+          <t>Hřebečská</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jablonné nad Orlicí  </t>
+          <t>Buštěhrad</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>Ústí  nad Orlicí</t>
+          <t>Kladno</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>Pardubický kraj</t>
+          <t>Středočeský kraj</t>
         </is>
       </c>
       <c r="H224" t="n">
-        <v>50.02509722222222</v>
+        <v>50.149225</v>
       </c>
       <c r="I224" t="n">
-        <v>16.60613055555556</v>
+        <v>14.18226666666667</v>
       </c>
       <c r="J224" t="inlineStr">
         <is>
@@ -13123,50 +13123,50 @@
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>2024-12-15T17:45:19Z</t>
+          <t>2024-12-14T15:17:41Z</t>
         </is>
       </c>
       <c r="M224" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>595</v>
+        <v>58</v>
       </c>
       <c r="B225" t="n">
-        <v>842</v>
+        <v>117</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Rožďalovice</t>
+          <t>Kouřim</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Ruská</t>
+          <t>Kolínská</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Rožďálovice</t>
+          <t>Kouřim</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>Nymburk</t>
+          <t>Kolín</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>Středočeský</t>
+          <t>Středočeský kraj</t>
         </is>
       </c>
       <c r="H225" t="n">
-        <v>50.30097916666666</v>
+        <v>50.00506111111111</v>
       </c>
       <c r="I225" t="n">
-        <v>15.17846388888889</v>
+        <v>14.98185</v>
       </c>
       <c r="J225" t="inlineStr">
         <is>
@@ -13180,33 +13180,33 @@
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>2024-12-08T18:47:50Z</t>
+          <t>2024-12-16T11:28:29Z</t>
         </is>
       </c>
       <c r="M225" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B226" t="n">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Vysoké Mýto</t>
+          <t>Jablonné n. Orlicí</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Husova</t>
+          <t>Aloise Hanuše</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vysoké Mýto  </t>
+          <t xml:space="preserve">Jablonné nad Orlicí  </t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -13220,10 +13220,10 @@
         </is>
       </c>
       <c r="H226" t="n">
-        <v>49.94361111111111</v>
+        <v>50.02509722222222</v>
       </c>
       <c r="I226" t="n">
-        <v>16.16433333333333</v>
+        <v>16.60613055555556</v>
       </c>
       <c r="J226" t="inlineStr">
         <is>
@@ -13237,7 +13237,7 @@
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>2024-12-16T12:31:36Z</t>
+          <t>2024-12-15T17:45:19Z</t>
         </is>
       </c>
       <c r="M226" t="n">
@@ -13246,41 +13246,41 @@
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B227" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Hronov</t>
+          <t>Chvaletice</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Hostovského</t>
+          <t>Kolínská</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hronov  </t>
+          <t xml:space="preserve">Chvaletice  </t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Náchod</t>
+          <t>Pardubice</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>Královéhradecký kraj</t>
+          <t>Pardubický kraj</t>
         </is>
       </c>
       <c r="H227" t="n">
-        <v>50.47203055555556</v>
+        <v>50.03690555555556</v>
       </c>
       <c r="I227" t="n">
-        <v>16.17942222222222</v>
+        <v>15.41097777777778</v>
       </c>
       <c r="J227" t="inlineStr">
         <is>
@@ -13294,7 +13294,7 @@
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>2024-12-15T10:38:15Z</t>
+          <t>2024-12-15T11:41:00Z</t>
         </is>
       </c>
       <c r="M227" t="n">
@@ -13360,24 +13360,24 @@
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B229" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Chvaletice</t>
+          <t>Černá za Bory</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Kolínská</t>
+          <t>Průmyslová</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chvaletice  </t>
+          <t xml:space="preserve">Černá za Bory  </t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -13391,10 +13391,10 @@
         </is>
       </c>
       <c r="H229" t="n">
-        <v>50.03690555555556</v>
+        <v>50.02514722222222</v>
       </c>
       <c r="I229" t="n">
-        <v>15.41097777777778</v>
+        <v>15.82488055555556</v>
       </c>
       <c r="J229" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>2024-12-15T11:41:00Z</t>
+          <t>2024-12-16T12:24:13Z</t>
         </is>
       </c>
       <c r="M229" t="n">
@@ -13417,41 +13417,41 @@
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B230" t="n">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Jičín - obchvat</t>
+          <t>Vysoké Mýto</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Raisova</t>
+          <t>Husova</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Jičín</t>
+          <t xml:space="preserve">Vysoké Mýto  </t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Jičín</t>
+          <t>Ústí  nad Orlicí</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>Královéhradecký kraj</t>
+          <t>Pardubický kraj</t>
         </is>
       </c>
       <c r="H230" t="n">
-        <v>50.43235722222222</v>
+        <v>49.94361111111111</v>
       </c>
       <c r="I230" t="n">
-        <v>15.34254055555556</v>
+        <v>16.16433333333333</v>
       </c>
       <c r="J230" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>2024-12-11T15:54:57Z</t>
+          <t>2024-12-16T12:31:36Z</t>
         </is>
       </c>
       <c r="M230" t="n">
@@ -13474,41 +13474,41 @@
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>184</v>
+        <v>595</v>
       </c>
       <c r="B231" t="n">
-        <v>319</v>
+        <v>842</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Žacléř</t>
+          <t>Rožďalovice</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Komenského</t>
+          <t>Ruská</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Žacléř</t>
+          <t>Rožďálovice</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Trutnov</t>
+          <t>Nymburk</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>Královéhradecký kraj</t>
+          <t>Středočeský</t>
         </is>
       </c>
       <c r="H231" t="n">
-        <v>50.66928611111111</v>
+        <v>50.30097916666666</v>
       </c>
       <c r="I231" t="n">
-        <v>15.91551388888889</v>
+        <v>15.17846388888889</v>
       </c>
       <c r="J231" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>2024-12-14T18:45:54Z</t>
+          <t>2024-12-08T18:47:50Z</t>
         </is>
       </c>
       <c r="M231" t="n">
@@ -13987,41 +13987,41 @@
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B240" t="n">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Smržovka</t>
+          <t>Trutnov</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Hlavní</t>
+          <t>Vlčická</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Smržovka</t>
+          <t>Trutnov</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>Jablonec nad Nisou</t>
+          <t>Trutnov</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>Liberecký</t>
+          <t>Středočeský</t>
         </is>
       </c>
       <c r="H240" t="n">
-        <v>50.73647777777778</v>
+        <v>50.58668694444444</v>
       </c>
       <c r="I240" t="n">
-        <v>15.2484625</v>
+        <v>15.87861916666667</v>
       </c>
       <c r="J240" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>2024-12-12T11:12:51Z</t>
+          <t>2024-12-14T18:45:54Z</t>
         </is>
       </c>
       <c r="M240" t="n">
@@ -14044,41 +14044,41 @@
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="B241" t="n">
-        <v>861</v>
+        <v>876</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
+          <t>Rtyně v Podkrkonoší</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Kostelecká</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>Rtyně</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
           <t>Trutnov</t>
         </is>
       </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>Vlčická</t>
-        </is>
-      </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>Trutnov</t>
-        </is>
-      </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>Trutnov</t>
-        </is>
-      </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>Středočeský</t>
+          <t>Královéhradecký</t>
         </is>
       </c>
       <c r="H241" t="n">
-        <v>50.58668694444444</v>
+        <v>50.49554722222222</v>
       </c>
       <c r="I241" t="n">
-        <v>15.87861916666667</v>
+        <v>16.07231611111111</v>
       </c>
       <c r="J241" t="inlineStr">
         <is>
@@ -14092,7 +14092,7 @@
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>2024-12-14T18:45:54Z</t>
+          <t>2024-12-13T11:12:45Z</t>
         </is>
       </c>
       <c r="M241" t="n">
@@ -14329,24 +14329,24 @@
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="B246" t="n">
-        <v>61</v>
+        <v>326</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Cerekvice n. Byst.</t>
+          <t>Jičín - obchvat</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>areál skladu Čepro, a.s.</t>
+          <t>Raisova</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cerekvice nad Bystřicí  </t>
+          <t>Jičín</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
@@ -14360,10 +14360,10 @@
         </is>
       </c>
       <c r="H246" t="n">
-        <v>50.32553055555556</v>
+        <v>50.43235722222222</v>
       </c>
       <c r="I246" t="n">
-        <v>15.73640555555555</v>
+        <v>15.34254055555556</v>
       </c>
       <c r="J246" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>2024-12-14T15:48:26Z</t>
+          <t>2024-12-11T15:54:57Z</t>
         </is>
       </c>
       <c r="M246" t="n">
@@ -14386,41 +14386,41 @@
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>577</v>
+        <v>184</v>
       </c>
       <c r="B247" t="n">
-        <v>814</v>
+        <v>319</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Harrachov</t>
+          <t>Žacléř</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Na Mýtě</t>
+          <t>Komenského</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Harrachov</t>
+          <t>Žacléř</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Jablonec nad Nisou</t>
+          <t>Trutnov</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>Liberecký</t>
+          <t>Královéhradecký kraj</t>
         </is>
       </c>
       <c r="H247" t="n">
-        <v>50.76246861111111</v>
+        <v>50.66928611111111</v>
       </c>
       <c r="I247" t="n">
-        <v>15.39689722222222</v>
+        <v>15.91551388888889</v>
       </c>
       <c r="J247" t="inlineStr">
         <is>
@@ -14434,7 +14434,7 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>2024-12-08T10:53:12Z</t>
+          <t>2024-12-14T18:45:54Z</t>
         </is>
       </c>
       <c r="M247" t="n">
@@ -14614,41 +14614,41 @@
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>603</v>
+        <v>11</v>
       </c>
       <c r="B251" t="n">
-        <v>876</v>
+        <v>61</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Rtyně v Podkrkonoší</t>
+          <t>Cerekvice n. Byst.</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Kostelecká</t>
+          <t>areál skladu Čepro, a.s.</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Rtyně</t>
+          <t xml:space="preserve">Cerekvice nad Bystřicí  </t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>Trutnov</t>
+          <t>Jičín</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>Královéhradecký</t>
+          <t>Královéhradecký kraj</t>
         </is>
       </c>
       <c r="H251" t="n">
-        <v>50.49554722222222</v>
+        <v>50.32553055555556</v>
       </c>
       <c r="I251" t="n">
-        <v>16.07231611111111</v>
+        <v>15.73640555555555</v>
       </c>
       <c r="J251" t="inlineStr">
         <is>
@@ -14662,7 +14662,7 @@
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>2024-12-13T11:12:45Z</t>
+          <t>2024-12-14T15:48:26Z</t>
         </is>
       </c>
       <c r="M251" t="n">
@@ -14895,41 +14895,41 @@
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>452</v>
+        <v>161</v>
       </c>
       <c r="B256" t="n">
-        <v>829</v>
+        <v>307</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Tlumačov</t>
+          <t>Hronov</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Skály</t>
+          <t>Hostovského</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Tlumačov</t>
+          <t xml:space="preserve">Hronov  </t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>Zlín</t>
+          <t>Náchod</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>Zlínský</t>
+          <t>Královéhradecký kraj</t>
         </is>
       </c>
       <c r="H256" t="n">
-        <v>49.230045</v>
+        <v>50.47203055555556</v>
       </c>
       <c r="I256" t="n">
-        <v>17.52042722222222</v>
+        <v>16.17942222222222</v>
       </c>
       <c r="J256" t="inlineStr">
         <is>
@@ -14943,33 +14943,33 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>2024-11-28T05:32:33Z</t>
+          <t>2024-12-15T10:38:15Z</t>
         </is>
       </c>
       <c r="M256" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>274</v>
+        <v>452</v>
       </c>
       <c r="B257" t="n">
-        <v>435</v>
+        <v>829</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Valašské Klobouky</t>
+          <t>Tlumačov</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Cyrilometodějská</t>
+          <t>Skály</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Valašské Klobouky</t>
+          <t>Tlumačov</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
@@ -14979,14 +14979,14 @@
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>Zlínský kraj</t>
+          <t>Zlínský</t>
         </is>
       </c>
       <c r="H257" t="n">
-        <v>49.14670833333334</v>
+        <v>49.230045</v>
       </c>
       <c r="I257" t="n">
-        <v>18.02126388888889</v>
+        <v>17.52042722222222</v>
       </c>
       <c r="J257" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>2024-12-10T07:14:50Z</t>
+          <t>2024-11-28T05:32:33Z</t>
         </is>
       </c>
       <c r="M257" t="n">
@@ -15066,41 +15066,41 @@
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>386</v>
+        <v>274</v>
       </c>
       <c r="B259" t="n">
-        <v>602</v>
+        <v>435</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Zdice</t>
+          <t>Valašské Klobouky</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Komenského</t>
+          <t>Cyrilometodějská</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Zdice</t>
+          <t>Valašské Klobouky</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>Beroun</t>
+          <t>Zlín</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>Středočeský kraj</t>
+          <t>Zlínský kraj</t>
         </is>
       </c>
       <c r="H259" t="n">
-        <v>49.90528333333333</v>
+        <v>49.14670833333334</v>
       </c>
       <c r="I259" t="n">
-        <v>13.962125</v>
+        <v>18.02126388888889</v>
       </c>
       <c r="J259" t="inlineStr">
         <is>
@@ -15114,23 +15114,23 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>2024-12-16T12:46:00Z</t>
+          <t>2024-12-10T07:14:50Z</t>
         </is>
       </c>
       <c r="M259" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="B260" t="n">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Peruc</t>
+          <t>Zdice</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -15140,24 +15140,24 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t xml:space="preserve">Peruc  </t>
+          <t>Zdice</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>Louny</t>
+          <t>Beroun</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>Ústecký kraj</t>
+          <t>Středočeský kraj</t>
         </is>
       </c>
       <c r="H260" t="n">
-        <v>50.34295</v>
+        <v>49.90528333333333</v>
       </c>
       <c r="I260" t="n">
-        <v>13.97043055555556</v>
+        <v>13.962125</v>
       </c>
       <c r="J260" t="inlineStr">
         <is>
@@ -15171,11 +15171,11 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>2024-12-09T08:51:00Z</t>
+          <t>2024-12-16T12:46:00Z</t>
         </is>
       </c>
       <c r="M260" t="n">
-        <v>8.4</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="261">
@@ -15404,29 +15404,29 @@
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B265" t="n">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Prunéřov, Ušák</t>
+          <t>Peruc</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Komenského</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Kadaň</t>
+          <t xml:space="preserve">Peruc  </t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>Chomutov</t>
+          <t>Louny</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
@@ -15435,10 +15435,10 @@
         </is>
       </c>
       <c r="H265" t="n">
-        <v>50.42713611111111</v>
+        <v>50.34295</v>
       </c>
       <c r="I265" t="n">
-        <v>13.26324166666667</v>
+        <v>13.97043055555556</v>
       </c>
       <c r="J265" t="inlineStr">
         <is>
@@ -15452,7 +15452,7 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>2024-12-12T04:13:43Z</t>
+          <t>2024-12-09T08:51:00Z</t>
         </is>
       </c>
       <c r="M265" t="n">
@@ -15518,14 +15518,14 @@
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>133</v>
+        <v>402</v>
       </c>
       <c r="B267" t="n">
-        <v>223</v>
+        <v>610</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Malšice</t>
+          <t>Prunéřov, Ušák</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -15535,24 +15535,24 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t xml:space="preserve">Malšice </t>
+          <t>Kadaň</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>Tábor</t>
+          <t>Chomutov</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>Jihočeský kraj</t>
+          <t>Ústecký kraj</t>
         </is>
       </c>
       <c r="H267" t="n">
-        <v>49.36540277777778</v>
+        <v>50.42713611111111</v>
       </c>
       <c r="I267" t="n">
-        <v>14.58539444444444</v>
+        <v>13.26324166666667</v>
       </c>
       <c r="J267" t="inlineStr">
         <is>
@@ -15566,11 +15566,11 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>2024-12-08T10:18:26Z</t>
+          <t>2024-12-12T04:13:43Z</t>
         </is>
       </c>
       <c r="M267" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="268">
@@ -15689,41 +15689,41 @@
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>394</v>
+        <v>133</v>
       </c>
       <c r="B270" t="n">
-        <v>606</v>
+        <v>223</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Koloveč</t>
+          <t>Malšice</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Palackého</t>
+          <t> </t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Koloveč</t>
+          <t xml:space="preserve">Malšice </t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>Domažlice</t>
+          <t>Tábor</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>Plzeňský kraj</t>
+          <t>Jihočeský kraj</t>
         </is>
       </c>
       <c r="H270" t="n">
-        <v>49.48315277777778</v>
+        <v>49.36540277777778</v>
       </c>
       <c r="I270" t="n">
-        <v>13.11466666666667</v>
+        <v>14.58539444444444</v>
       </c>
       <c r="J270" t="inlineStr">
         <is>
@@ -15737,11 +15737,11 @@
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>2024-12-12T07:19:14Z</t>
+          <t>2024-12-08T10:18:26Z</t>
         </is>
       </c>
       <c r="M270" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="271">
@@ -15970,41 +15970,41 @@
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>546</v>
+        <v>425</v>
       </c>
       <c r="B275" t="n">
-        <v>878</v>
+        <v>621</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Rakovník</t>
+          <t>Loket n. Ohří</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t xml:space="preserve">V Hamru </t>
+          <t>TGM Masaryka</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Rakovník</t>
+          <t>Loket</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>Rakovník</t>
+          <t>Sokolov</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>Středočeský</t>
+          <t>Karlovarský kraj</t>
         </is>
       </c>
       <c r="H275" t="n">
-        <v>50.10576638888889</v>
+        <v>50.18869166666666</v>
       </c>
       <c r="I275" t="n">
-        <v>13.75097</v>
+        <v>12.75131111111111</v>
       </c>
       <c r="J275" t="inlineStr">
         <is>
@@ -16018,7 +16018,7 @@
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>2024-12-07T12:46:35Z</t>
+          <t>2024-12-11T16:42:40Z</t>
         </is>
       </c>
       <c r="M275" t="n">
@@ -16027,41 +16027,41 @@
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B276" t="n">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Loket n. Ohří</t>
+          <t xml:space="preserve">Kozojedy  </t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>TGM Masaryka</t>
+          <t> </t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Loket</t>
+          <t xml:space="preserve">Kozojedy  </t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>Sokolov</t>
+          <t>Plzeň - sever</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>Karlovarský kraj</t>
+          <t>Plzeňský kraj</t>
         </is>
       </c>
       <c r="H276" t="n">
-        <v>50.18869166666666</v>
+        <v>49.93459444444444</v>
       </c>
       <c r="I276" t="n">
-        <v>12.75131111111111</v>
+        <v>13.54315</v>
       </c>
       <c r="J276" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>2024-12-11T16:42:40Z</t>
+          <t>2024-12-11T10:56:37Z</t>
         </is>
       </c>
       <c r="M276" t="n">
@@ -16141,29 +16141,29 @@
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
-        <v>422</v>
+        <v>394</v>
       </c>
       <c r="B278" t="n">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kozojedy  </t>
+          <t>Koloveč</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Palackého</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kozojedy  </t>
+          <t>Koloveč</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>Plzeň - sever</t>
+          <t>Domažlice</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -16172,10 +16172,10 @@
         </is>
       </c>
       <c r="H278" t="n">
-        <v>49.93459444444444</v>
+        <v>49.48315277777778</v>
       </c>
       <c r="I278" t="n">
-        <v>13.54315</v>
+        <v>13.11466666666667</v>
       </c>
       <c r="J278" t="inlineStr">
         <is>
@@ -16189,7 +16189,7 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>2024-12-11T10:56:37Z</t>
+          <t>2024-12-12T07:19:14Z</t>
         </is>
       </c>
       <c r="M278" t="n">
@@ -16198,41 +16198,41 @@
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
-        <v>242</v>
+        <v>546</v>
       </c>
       <c r="B279" t="n">
-        <v>419</v>
+        <v>878</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Okříšky</t>
+          <t>Rakovník</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Masarykova</t>
+          <t xml:space="preserve">V Hamru </t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t xml:space="preserve">Okříšky  </t>
+          <t>Rakovník</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>Třebíč</t>
+          <t>Rakovník</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>Kraj Vysočina</t>
+          <t>Středočeský</t>
         </is>
       </c>
       <c r="H279" t="n">
-        <v>49.24034722222223</v>
+        <v>50.10576638888889</v>
       </c>
       <c r="I279" t="n">
-        <v>15.77758611111111</v>
+        <v>13.75097</v>
       </c>
       <c r="J279" t="inlineStr">
         <is>
@@ -16246,11 +16246,11 @@
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>2024-12-09T18:35:26Z</t>
+          <t>2024-12-07T12:46:35Z</t>
         </is>
       </c>
       <c r="M279" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="280">
